--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1160" windowWidth="25080" windowHeight="16840" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1900" yWindow="640" windowWidth="25080" windowHeight="16840" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="15">
   <si>
     <t>Time N, Comments N</t>
   </si>
@@ -67,6 +69,12 @@
   </si>
   <si>
     <t>Comments Y</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -1425,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1988,4 +1996,2804 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="H4">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="I4">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="J4">
+        <v>33</v>
+      </c>
+      <c r="K4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="N4">
+        <v>33</v>
+      </c>
+      <c r="O4">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="R4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.6905</v>
+      </c>
+      <c r="I5">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="N5">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="P5">
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="R5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H6">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="I6">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="J6">
+        <v>32</v>
+      </c>
+      <c r="K6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="N6">
+        <v>32</v>
+      </c>
+      <c r="O6">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="P6">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="Q6">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="R6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>0.1211</v>
+      </c>
+      <c r="H7">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.2089</v>
+      </c>
+      <c r="J7">
+        <v>37</v>
+      </c>
+      <c r="K7">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="N7">
+        <v>23</v>
+      </c>
+      <c r="O7">
+        <v>3.78E-2</v>
+      </c>
+      <c r="P7">
+        <v>0.9677</v>
+      </c>
+      <c r="Q7">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="R7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>2.06E-2</v>
+      </c>
+      <c r="F9">
+        <v>75</v>
+      </c>
+      <c r="G9">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="J9">
+        <v>23</v>
+      </c>
+      <c r="K9">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="L9">
+        <v>0.25</v>
+      </c>
+      <c r="M9">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="N9">
+        <v>86</v>
+      </c>
+      <c r="O9">
+        <v>0.1444</v>
+      </c>
+      <c r="P9">
+        <v>0.4194</v>
+      </c>
+      <c r="Q9">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="R9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+      <c r="E10">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>75</v>
+      </c>
+      <c r="G10">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="H10">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="I10">
+        <v>6.08E-2</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="P10">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="Q10">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="R10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.1825</v>
+      </c>
+      <c r="I11">
+        <v>0.216</v>
+      </c>
+      <c r="J11">
+        <v>58</v>
+      </c>
+      <c r="K11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="N11">
+        <v>32</v>
+      </c>
+      <c r="O11">
+        <v>0.13789999999999999</v>
+      </c>
+      <c r="P11">
+        <v>0.3871</v>
+      </c>
+      <c r="Q11">
+        <v>0.2034</v>
+      </c>
+      <c r="R11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
+      <c r="E12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>0.2621</v>
+      </c>
+      <c r="H12">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="I12">
+        <v>0.32529999999999998</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>1.9E-3</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.6129</v>
+      </c>
+      <c r="Q12">
+        <v>0.1603</v>
+      </c>
+      <c r="R12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="F14">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H14">
+        <v>0.23019999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="J14">
+        <v>42</v>
+      </c>
+      <c r="K14">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="N14">
+        <v>16</v>
+      </c>
+      <c r="O14">
+        <v>0.13</v>
+      </c>
+      <c r="P14">
+        <v>0.4194</v>
+      </c>
+      <c r="Q14">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="R14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.3</v>
+      </c>
+      <c r="E15">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="F15">
+        <v>110</v>
+      </c>
+      <c r="G15">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="I15">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L15">
+        <v>0.25</v>
+      </c>
+      <c r="M15">
+        <v>1.18E-2</v>
+      </c>
+      <c r="N15">
+        <v>68</v>
+      </c>
+      <c r="O15">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="P15">
+        <v>0.6129</v>
+      </c>
+      <c r="Q15">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="R15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F16">
+        <v>120</v>
+      </c>
+      <c r="G16">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.254</v>
+      </c>
+      <c r="I16">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="J16">
+        <v>49</v>
+      </c>
+      <c r="K16">
+        <v>2E-3</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N16">
+        <v>49</v>
+      </c>
+      <c r="O16">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="P16">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="Q16">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="R16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>0.26369999999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.1905</v>
+      </c>
+      <c r="I17">
+        <v>0.22120000000000001</v>
+      </c>
+      <c r="J17">
+        <v>12</v>
+      </c>
+      <c r="K17">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="N17">
+        <v>29</v>
+      </c>
+      <c r="O17">
+        <v>0.1429</v>
+      </c>
+      <c r="P17">
+        <v>0.4194</v>
+      </c>
+      <c r="Q17">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="R17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1.15E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="I19">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="J19">
+        <v>13</v>
+      </c>
+      <c r="K19">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="L19">
+        <v>0.75</v>
+      </c>
+      <c r="M19">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="N19">
+        <v>13</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="Q19">
+        <v>6.25E-2</v>
+      </c>
+      <c r="R19">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.3</v>
+      </c>
+      <c r="E20">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="F20">
+        <v>35</v>
+      </c>
+      <c r="G20">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.5635</v>
+      </c>
+      <c r="I20">
+        <v>0.1062</v>
+      </c>
+      <c r="J20">
+        <v>13</v>
+      </c>
+      <c r="K20">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L20">
+        <v>0.25</v>
+      </c>
+      <c r="M20">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="N20">
+        <v>84</v>
+      </c>
+      <c r="O20">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P20">
+        <v>0.5484</v>
+      </c>
+      <c r="Q20">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="R20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1.14E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.2</v>
+      </c>
+      <c r="E21">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="F21">
+        <v>191</v>
+      </c>
+      <c r="G21">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="H21">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="I21">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J21">
+        <v>121</v>
+      </c>
+      <c r="K21">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="N21">
+        <v>142</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="Q21">
+        <v>6.25E-2</v>
+      </c>
+      <c r="R21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>2.29E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.4</v>
+      </c>
+      <c r="E22">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="H22">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="I22">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="J22">
+        <v>32</v>
+      </c>
+      <c r="K22">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L22">
+        <v>0.25</v>
+      </c>
+      <c r="M22">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N22">
+        <v>176</v>
+      </c>
+      <c r="O22">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="P22">
+        <v>0.5161</v>
+      </c>
+      <c r="Q22">
+        <v>0.23530000000000001</v>
+      </c>
+      <c r="R22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="H24">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="I24">
+        <v>3.49E-2</v>
+      </c>
+      <c r="J24">
+        <v>148</v>
+      </c>
+      <c r="K24">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="Q24">
+        <v>6.25E-2</v>
+      </c>
+      <c r="R24">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.3</v>
+      </c>
+      <c r="E25">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="F25">
+        <v>161</v>
+      </c>
+      <c r="G25">
+        <v>0.6</v>
+      </c>
+      <c r="H25">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="I25">
+        <v>4.58E-2</v>
+      </c>
+      <c r="J25">
+        <v>217</v>
+      </c>
+      <c r="K25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="L25">
+        <v>0.25</v>
+      </c>
+      <c r="M25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="N25">
+        <v>31</v>
+      </c>
+      <c r="O25">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="P25">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="Q25">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="R25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+      <c r="E26">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>0.24210000000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.1825</v>
+      </c>
+      <c r="I26">
+        <v>0.20810000000000001</v>
+      </c>
+      <c r="J26">
+        <v>173</v>
+      </c>
+      <c r="K26">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="L26">
+        <v>0.75</v>
+      </c>
+      <c r="M26">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>0.1368</v>
+      </c>
+      <c r="P26">
+        <v>0.4194</v>
+      </c>
+      <c r="Q26">
+        <v>0.20630000000000001</v>
+      </c>
+      <c r="R26">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.3</v>
+      </c>
+      <c r="E27">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H27">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="J27">
+        <v>214</v>
+      </c>
+      <c r="K27">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N27">
+        <v>224</v>
+      </c>
+      <c r="O27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P27">
+        <v>0.4516</v>
+      </c>
+      <c r="Q27">
+        <v>0.2137</v>
+      </c>
+      <c r="R27">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1.14E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.2</v>
+      </c>
+      <c r="E29">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="F29">
+        <v>228</v>
+      </c>
+      <c r="G29">
+        <v>0.625</v>
+      </c>
+      <c r="H29">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="I29">
+        <v>7.46E-2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="N29">
+        <v>168</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="Q29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="R29">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D30">
+        <v>0.1</v>
+      </c>
+      <c r="E30">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F30">
+        <v>78</v>
+      </c>
+      <c r="G30">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.1905</v>
+      </c>
+      <c r="I30">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N30">
+        <v>282</v>
+      </c>
+      <c r="O30">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="P30">
+        <v>0.3548</v>
+      </c>
+      <c r="Q30">
+        <v>0.193</v>
+      </c>
+      <c r="R30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+      <c r="E31">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="F31">
+        <v>295</v>
+      </c>
+      <c r="G31">
+        <v>0.25</v>
+      </c>
+      <c r="H31">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.2</v>
+      </c>
+      <c r="J31">
+        <v>60</v>
+      </c>
+      <c r="K31">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="N31">
+        <v>16</v>
+      </c>
+      <c r="O31">
+        <v>0.1429</v>
+      </c>
+      <c r="P31">
+        <v>0.3871</v>
+      </c>
+      <c r="Q31">
+        <v>0.2087</v>
+      </c>
+      <c r="R31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.4</v>
+      </c>
+      <c r="E32">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="F32">
+        <v>271</v>
+      </c>
+      <c r="G32">
+        <v>0.25</v>
+      </c>
+      <c r="H32">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.2056</v>
+      </c>
+      <c r="J32">
+        <v>30</v>
+      </c>
+      <c r="K32">
+        <v>6.6E-3</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>1.29E-2</v>
+      </c>
+      <c r="N32">
+        <v>267</v>
+      </c>
+      <c r="O32">
+        <v>0.1477</v>
+      </c>
+      <c r="P32">
+        <v>0.4194</v>
+      </c>
+      <c r="Q32">
+        <v>0.2185</v>
+      </c>
+      <c r="R32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
+      <c r="E34">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F34">
+        <v>70</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="I34">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="J34">
+        <v>104</v>
+      </c>
+      <c r="K34">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N34">
+        <v>48</v>
+      </c>
+      <c r="O34">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="P34">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="Q34">
+        <v>0.1053</v>
+      </c>
+      <c r="R34">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D35">
+        <v>0.1</v>
+      </c>
+      <c r="E35">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="F35">
+        <v>115</v>
+      </c>
+      <c r="G35">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="H35">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.23469999999999999</v>
+      </c>
+      <c r="J35">
+        <v>238</v>
+      </c>
+      <c r="K35">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="N35">
+        <v>63</v>
+      </c>
+      <c r="O35">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="P35">
+        <v>0.4194</v>
+      </c>
+      <c r="Q35">
+        <v>0.2203</v>
+      </c>
+      <c r="R35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>1.83E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.2</v>
+      </c>
+      <c r="E36">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="F36">
+        <v>230</v>
+      </c>
+      <c r="G36">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="H36">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J36">
+        <v>169</v>
+      </c>
+      <c r="K36">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="N36">
+        <v>85</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="Q36">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="R36">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.3</v>
+      </c>
+      <c r="E37">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="F37">
+        <v>365</v>
+      </c>
+      <c r="G37">
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="H37">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.25</v>
+      </c>
+      <c r="M37">
+        <v>0.4</v>
+      </c>
+      <c r="N37">
+        <v>238</v>
+      </c>
+      <c r="O37">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="P37">
+        <v>0.4194</v>
+      </c>
+      <c r="Q37">
+        <v>0.2203</v>
+      </c>
+      <c r="R37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+      <c r="E39">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="F39">
+        <v>363</v>
+      </c>
+      <c r="G39">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="H39">
+        <v>0.15079999999999999</v>
+      </c>
+      <c r="I39">
+        <v>0.18629999999999999</v>
+      </c>
+      <c r="J39">
+        <v>118</v>
+      </c>
+      <c r="K39">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="L39">
+        <v>0.5</v>
+      </c>
+      <c r="M39">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="N39">
+        <v>102</v>
+      </c>
+      <c r="O39">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="P39">
+        <v>0.3871</v>
+      </c>
+      <c r="Q39">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="R39">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="D40">
+        <v>0.3</v>
+      </c>
+      <c r="E40">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="F40">
+        <v>236</v>
+      </c>
+      <c r="G40">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="H40">
+        <v>0.20630000000000001</v>
+      </c>
+      <c r="I40">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="J40">
+        <v>390</v>
+      </c>
+      <c r="K40">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="N40">
+        <v>312</v>
+      </c>
+      <c r="O40">
+        <v>0.1429</v>
+      </c>
+      <c r="P40">
+        <v>0.4194</v>
+      </c>
+      <c r="Q40">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="R40">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D41">
+        <v>0.1</v>
+      </c>
+      <c r="E41">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="F41">
+        <v>461</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="I41">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="J41">
+        <v>415</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0.25</v>
+      </c>
+      <c r="M41">
+        <v>0.4</v>
+      </c>
+      <c r="N41">
+        <v>429</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="Q41">
+        <v>6.25E-2</v>
+      </c>
+      <c r="R41">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D42">
+        <v>0.1</v>
+      </c>
+      <c r="E42">
+        <v>7.6E-3</v>
+      </c>
+      <c r="F42">
+        <v>56</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="I42">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="J42">
+        <v>87</v>
+      </c>
+      <c r="K42">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="Q42">
+        <v>6.25E-2</v>
+      </c>
+      <c r="R42">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>1.43E-2</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.1077</v>
+      </c>
+      <c r="J4">
+        <v>44</v>
+      </c>
+      <c r="K4">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="L4">
+        <v>0.25</v>
+      </c>
+      <c r="M4">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="N4">
+        <v>39</v>
+      </c>
+      <c r="O4">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="P4">
+        <v>0.2903</v>
+      </c>
+      <c r="Q4">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.3</v>
+      </c>
+      <c r="E5">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.36509999999999998</v>
+      </c>
+      <c r="I5">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="J5">
+        <v>43</v>
+      </c>
+      <c r="K5">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="P5">
+        <v>0.2903</v>
+      </c>
+      <c r="Q5">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="R5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1.18E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="F7">
+        <v>67</v>
+      </c>
+      <c r="G7">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="I7">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L7">
+        <v>0.75</v>
+      </c>
+      <c r="M7">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P7">
+        <v>0.2903</v>
+      </c>
+      <c r="Q7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="F8">
+        <v>67</v>
+      </c>
+      <c r="G8">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.65080000000000005</v>
+      </c>
+      <c r="I8">
+        <v>0.15690000000000001</v>
+      </c>
+      <c r="J8">
+        <v>81</v>
+      </c>
+      <c r="K8">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="L8">
+        <v>0.25</v>
+      </c>
+      <c r="M8">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="N8">
+        <v>38</v>
+      </c>
+      <c r="O8">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="P8">
+        <v>0.2581</v>
+      </c>
+      <c r="Q8">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="R8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.46829999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1641</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="L10">
+        <v>0.25</v>
+      </c>
+      <c r="M10">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="N10">
+        <v>50</v>
+      </c>
+      <c r="O10">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="P10">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="R10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1.46E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>118</v>
+      </c>
+      <c r="G11">
+        <v>0.1027</v>
+      </c>
+      <c r="H11">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.17580000000000001</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>1.4E-3</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>2.8E-3</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>3.61E-2</v>
+      </c>
+      <c r="P11">
+        <v>0.3871</v>
+      </c>
+      <c r="Q11">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="R11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>111</v>
+      </c>
+      <c r="G13">
+        <v>0.1106</v>
+      </c>
+      <c r="H13">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.13539999999999999</v>
+      </c>
+      <c r="J13">
+        <v>44</v>
+      </c>
+      <c r="K13">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="L13">
+        <v>0.25</v>
+      </c>
+      <c r="M13">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="N13">
+        <v>105</v>
+      </c>
+      <c r="O13">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="P13">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="Q13">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="R13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>0.1096</v>
+      </c>
+      <c r="F14">
+        <v>124</v>
+      </c>
+      <c r="G14">
+        <v>0.16289999999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="J14">
+        <v>145</v>
+      </c>
+      <c r="K14">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="P14">
+        <v>0.3548</v>
+      </c>
+      <c r="Q14">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="R14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F16">
+        <v>236</v>
+      </c>
+      <c r="G16">
+        <v>0.125</v>
+      </c>
+      <c r="H16">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.1081</v>
+      </c>
+      <c r="J16">
+        <v>80</v>
+      </c>
+      <c r="K16">
+        <v>4.3E-3</v>
+      </c>
+      <c r="L16">
+        <v>0.25</v>
+      </c>
+      <c r="M16">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="N16">
+        <v>245</v>
+      </c>
+      <c r="O16">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="P16">
+        <v>0.2258</v>
+      </c>
+      <c r="Q16">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="R16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.9</v>
+      </c>
+      <c r="E17">
+        <v>0.1429</v>
+      </c>
+      <c r="F17">
+        <v>127</v>
+      </c>
+      <c r="G17">
+        <v>0.2452</v>
+      </c>
+      <c r="H17">
+        <v>0.30159999999999998</v>
+      </c>
+      <c r="I17">
+        <v>0.27050000000000002</v>
+      </c>
+      <c r="J17">
+        <v>140</v>
+      </c>
+      <c r="K17">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N17">
+        <v>13</v>
+      </c>
+      <c r="O17">
+        <v>5.16E-2</v>
+      </c>
+      <c r="P17">
+        <v>0.2581</v>
+      </c>
+      <c r="Q17">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="R17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="F19">
+        <v>102</v>
+      </c>
+      <c r="G19">
+        <v>0.187</v>
+      </c>
+      <c r="H19">
+        <v>0.1825</v>
+      </c>
+      <c r="I19">
+        <v>0.1847</v>
+      </c>
+      <c r="J19">
+        <v>101</v>
+      </c>
+      <c r="K19">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="L19">
+        <v>0.25</v>
+      </c>
+      <c r="M19">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="N19">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>0.1429</v>
+      </c>
+      <c r="P19">
+        <v>0.2903</v>
+      </c>
+      <c r="Q19">
+        <v>0.1915</v>
+      </c>
+      <c r="R19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.2</v>
+      </c>
+      <c r="E20">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="F20">
+        <v>201</v>
+      </c>
+      <c r="G20">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.63490000000000002</v>
+      </c>
+      <c r="I20">
+        <v>0.1575</v>
+      </c>
+      <c r="J20">
+        <v>30</v>
+      </c>
+      <c r="K20">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="L20">
+        <v>0.25</v>
+      </c>
+      <c r="M20">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="N20">
+        <v>251</v>
+      </c>
+      <c r="O20">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="P20">
+        <v>0.2903</v>
+      </c>
+      <c r="Q20">
+        <v>0.1353</v>
+      </c>
+      <c r="R20">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.3</v>
+      </c>
+      <c r="E22">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="F22">
+        <v>152</v>
+      </c>
+      <c r="G22">
+        <v>0.21740000000000001</v>
+      </c>
+      <c r="H22">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.1163</v>
+      </c>
+      <c r="J22">
+        <v>352</v>
+      </c>
+      <c r="K22">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="L22">
+        <v>0.25</v>
+      </c>
+      <c r="M22">
+        <v>1.46E-2</v>
+      </c>
+      <c r="N22">
+        <v>32</v>
+      </c>
+      <c r="O22">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="P22">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="Q22">
+        <v>0.1714</v>
+      </c>
+      <c r="R22">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.2</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="F23">
+        <v>185</v>
+      </c>
+      <c r="G23">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.3095</v>
+      </c>
+      <c r="I23">
+        <v>0.33189999999999997</v>
+      </c>
+      <c r="J23">
+        <v>305</v>
+      </c>
+      <c r="K23">
+        <v>2E-3</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="N23">
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="P23">
+        <v>0.2903</v>
+      </c>
+      <c r="Q23">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="R23">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+      <c r="E25">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="F25">
+        <v>359</v>
+      </c>
+      <c r="G25">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1875</v>
+      </c>
+      <c r="J25">
+        <v>278</v>
+      </c>
+      <c r="K25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L25">
+        <v>0.25</v>
+      </c>
+      <c r="M25">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="N25">
+        <v>297</v>
+      </c>
+      <c r="O25">
+        <v>0.1154</v>
+      </c>
+      <c r="P25">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="Q25">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="R25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.3</v>
+      </c>
+      <c r="E26">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="F26">
+        <v>172</v>
+      </c>
+      <c r="G26">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.15079999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1479</v>
+      </c>
+      <c r="J26">
+        <v>410</v>
+      </c>
+      <c r="K26">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="L26">
+        <v>0.25</v>
+      </c>
+      <c r="M26">
+        <v>1.35E-2</v>
+      </c>
+      <c r="N26">
+        <v>42</v>
+      </c>
+      <c r="O26">
+        <v>0.2</v>
+      </c>
+      <c r="P26">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="Q26">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="R26">
+        <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>